--- a/Resources/Function_Docs.xlsx
+++ b/Resources/Function_Docs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FWD_Design\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDD592EA-EF25-40D9-ADAF-9FC7DF8CED9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2388554-94DC-46FA-926C-9C65A7575258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1785DF16-A68C-41A7-90A1-84F003FFC0D0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
   <si>
     <t>Module name</t>
   </si>
@@ -83,26 +83,83 @@
     <t>Intializes the RCC Module</t>
   </si>
   <si>
-    <t>Parameters</t>
-  </si>
-  <si>
     <t>Return Type</t>
   </si>
   <si>
-    <t>Syncronous</t>
-  </si>
-  <si>
-    <t>Re-entrent</t>
+    <t>Sync/Async</t>
+  </si>
+  <si>
+    <t>Reentrancy</t>
+  </si>
+  <si>
+    <t>Parameters(in)</t>
+  </si>
+  <si>
+    <t>Parameters(in/out)</t>
+  </si>
+  <si>
+    <t>Synchrounous</t>
+  </si>
+  <si>
+    <t>Asynchrounous</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Void</t>
+  </si>
+  <si>
+    <t>Reentrent</t>
+  </si>
+  <si>
+    <t>RCC_Enable</t>
+  </si>
+  <si>
+    <t>Configuration : Struct</t>
+  </si>
+  <si>
+    <t>PortNum : uint8, pinNumber : uint8, value : bool</t>
+  </si>
+  <si>
+    <t>Parameters (out)</t>
+  </si>
+  <si>
+    <t>PortNum : uint8, pinNumber : uint8</t>
+  </si>
+  <si>
+    <t>pinValue : bool</t>
+  </si>
+  <si>
+    <t>Door</t>
+  </si>
+  <si>
+    <t>Dooe_SendState</t>
+  </si>
+  <si>
+    <t>ECU 2</t>
+  </si>
+  <si>
+    <t>Door_SendState</t>
+  </si>
+  <si>
+    <t>Speed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -148,17 +205,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{38FA14FD-A4DE-4C7B-B02A-12A4BAB45DFC}" name="Table1" displayName="Table1" ref="A1:H7" totalsRowShown="0">
-  <autoFilter ref="A1:H7" xr:uid="{38FA14FD-A4DE-4C7B-B02A-12A4BAB45DFC}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{38FA14FD-A4DE-4C7B-B02A-12A4BAB45DFC}" name="Table1" displayName="Table1" ref="A1:J8" totalsRowShown="0">
+  <autoFilter ref="A1:J8" xr:uid="{38FA14FD-A4DE-4C7B-B02A-12A4BAB45DFC}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{6D81C451-CA22-4F4C-A49D-2B48DD08F39E}" name="ECU Name"/>
     <tableColumn id="2" xr3:uid="{211B5E55-7721-4EF7-8C67-3A413C78EB91}" name="Module name"/>
     <tableColumn id="3" xr3:uid="{2E5EEA7A-CE71-4FA0-AD2B-C8A0BB4A3BA4}" name="API Name"/>
-    <tableColumn id="4" xr3:uid="{560F2767-2FBE-4CA6-82B0-38D9AD955C01}" name="API Description"/>
-    <tableColumn id="5" xr3:uid="{57859F0E-253E-4B92-9E33-E879BDC55224}" name="Parameters"/>
-    <tableColumn id="6" xr3:uid="{53D3FD93-968F-4FBF-BE83-8FCB34EC00B7}" name="Return Type"/>
-    <tableColumn id="7" xr3:uid="{4D8460D6-2CE4-44AB-8F8E-52D5AC4EF2EF}" name="Syncronous"/>
-    <tableColumn id="8" xr3:uid="{6980EC48-2A23-4895-84A6-54F30F36D5B7}" name="Re-entrent"/>
+    <tableColumn id="7" xr3:uid="{4D8460D6-2CE4-44AB-8F8E-52D5AC4EF2EF}" name="Sync/Async"/>
+    <tableColumn id="8" xr3:uid="{6980EC48-2A23-4895-84A6-54F30F36D5B7}" name="Reentrancy"/>
+    <tableColumn id="9" xr3:uid="{8171B937-75DA-4FC0-8E5A-53815E660150}" name="Parameters(in)"/>
+    <tableColumn id="14" xr3:uid="{5E73748A-BABD-41AC-8134-234FFE07E470}" name="Parameters (out)"/>
+    <tableColumn id="10" xr3:uid="{500920A3-DE8B-46A3-BD1C-01AF8FB0476D}" name="Parameters(in/out)"/>
+    <tableColumn id="12" xr3:uid="{682863D2-3B43-4261-B949-276DFE9A06BE}" name="Return Type"/>
+    <tableColumn id="13" xr3:uid="{C9C1CEF8-D52E-44E4-A3E2-7FF9AE5446AC}" name="API Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -461,25 +520,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C49387F-F239-4BD2-9895-0BB433B55950}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.77734375" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="40.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.21875" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" customWidth="1"/>
+    <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -490,22 +551,28 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -516,10 +583,28 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -530,10 +615,25 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -544,10 +644,25 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -558,15 +673,79 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{1C793856-33DD-488E-96E0-C7DDBBBFC10A}">
+      <formula1>"Synchrounous, Asynchrounous"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{E370184C-B756-49F3-9E62-89C89EDA11C3}">
+      <formula1>"Reentrent, None"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
